--- a/doc/12_外部設計/02_外部設計書_ニューヨーカーズv1.1.xlsx
+++ b/doc/12_外部設計/02_外部設計書_ニューヨーカーズv1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\12_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458D849F-C891-4ECD-B228-69636D5728D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8160D9-4500-4240-AB65-4D06A8E38FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2549,7 +2549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2680,6 +2680,78 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2688,6 +2760,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2700,30 +2781,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13028,200 +13085,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66">
         <v>45453</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -17684,6 +17741,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -17700,7 +17758,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17726,196 +17783,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66">
         <v>45454</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -22267,6 +22324,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -22283,7 +22341,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -22309,198 +22366,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66">
         <v>45454</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -26866,6 +26923,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -26882,7 +26940,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -26908,200 +26965,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66">
         <v>45454</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -31494,11 +31551,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -31511,6 +31563,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -31536,200 +31593,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66">
         <v>45454</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -33749,15 +33806,15 @@
       <c r="D57" s="2">
         <v>5</v>
       </c>
-      <c r="E57" s="61" t="s">
+      <c r="E57" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
@@ -33834,15 +33891,15 @@
       <c r="D59" s="2">
         <v>6</v>
       </c>
-      <c r="E59" s="61" t="s">
+      <c r="E59" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
@@ -33919,19 +33976,19 @@
       <c r="D61" s="2">
         <v>7</v>
       </c>
-      <c r="E61" s="61" t="s">
+      <c r="E61" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
@@ -34004,32 +34061,32 @@
       <c r="D63" s="2">
         <v>8</v>
       </c>
-      <c r="E63" s="62" t="s">
+      <c r="E63" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="V63" s="62"/>
-      <c r="W63" s="62"/>
-      <c r="X63" s="62"/>
-      <c r="Y63" s="62"/>
-      <c r="Z63" s="62"/>
-      <c r="AA63" s="62"/>
-      <c r="AB63" s="62"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
       <c r="AC63" s="8"/>
       <c r="AD63" s="8"/>
       <c r="AE63" s="8"/>
@@ -34727,23 +34784,23 @@
       <c r="C80" s="13">
         <v>1</v>
       </c>
-      <c r="D80" s="58" t="s">
+      <c r="D80" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="48" t="s">
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="48" t="s">
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="74"/>
+      <c r="L80" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="M80" s="49"/>
-      <c r="N80" s="50"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="74"/>
       <c r="O80" s="14"/>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -34777,23 +34834,23 @@
       <c r="C81" s="13">
         <v>2</v>
       </c>
-      <c r="D81" s="48" t="s">
+      <c r="D81" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="50"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="74"/>
       <c r="H81" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="48" t="s">
+      <c r="L81" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="M81" s="49"/>
-      <c r="N81" s="50"/>
+      <c r="M81" s="73"/>
+      <c r="N81" s="74"/>
       <c r="O81" s="14"/>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -34827,39 +34884,39 @@
       <c r="C82" s="13">
         <v>3</v>
       </c>
-      <c r="D82" s="48" t="s">
+      <c r="D82" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="48" t="s">
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="48" t="s">
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="M82" s="49"/>
-      <c r="N82" s="50"/>
-      <c r="O82" s="48" t="s">
+      <c r="M82" s="73"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="49"/>
-      <c r="R82" s="50"/>
+      <c r="P82" s="73"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="74"/>
       <c r="S82" s="14"/>
       <c r="T82" s="17"/>
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
-      <c r="W82" s="48" t="s">
+      <c r="W82" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="X82" s="49"/>
-      <c r="Y82" s="49"/>
-      <c r="Z82" s="50"/>
+      <c r="X82" s="73"/>
+      <c r="Y82" s="73"/>
+      <c r="Z82" s="74"/>
       <c r="AA82" s="14" t="s">
         <v>45</v>
       </c>
@@ -34883,29 +34940,29 @@
       <c r="C83" s="13">
         <v>4</v>
       </c>
-      <c r="D83" s="48" t="s">
+      <c r="D83" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="48" t="s">
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="48" t="s">
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="M83" s="49"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="48" t="s">
+      <c r="M83" s="73"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="P83" s="49"/>
-      <c r="Q83" s="49"/>
-      <c r="R83" s="50"/>
+      <c r="P83" s="73"/>
+      <c r="Q83" s="73"/>
+      <c r="R83" s="74"/>
       <c r="S83" s="14">
         <v>1</v>
       </c>
@@ -34914,12 +34971,12 @@
       <c r="V83" s="17">
         <v>100</v>
       </c>
-      <c r="W83" s="48" t="s">
+      <c r="W83" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="X83" s="49"/>
-      <c r="Y83" s="49"/>
-      <c r="Z83" s="50"/>
+      <c r="X83" s="73"/>
+      <c r="Y83" s="73"/>
+      <c r="Z83" s="74"/>
       <c r="AA83" s="14" t="s">
         <v>46</v>
       </c>
@@ -34943,29 +35000,29 @@
       <c r="C84" s="13">
         <v>5</v>
       </c>
-      <c r="D84" s="48" t="s">
+      <c r="D84" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="48" t="s">
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="48" t="s">
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="M84" s="49"/>
-      <c r="N84" s="50"/>
-      <c r="O84" s="48" t="s">
+      <c r="M84" s="73"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="49"/>
-      <c r="R84" s="50"/>
+      <c r="P84" s="73"/>
+      <c r="Q84" s="73"/>
+      <c r="R84" s="74"/>
       <c r="S84" s="14">
         <v>0</v>
       </c>
@@ -34974,12 +35031,12 @@
       <c r="V84" s="17">
         <v>100</v>
       </c>
-      <c r="W84" s="48" t="s">
+      <c r="W84" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="X84" s="49"/>
-      <c r="Y84" s="49"/>
-      <c r="Z84" s="50"/>
+      <c r="X84" s="73"/>
+      <c r="Y84" s="73"/>
+      <c r="Z84" s="74"/>
       <c r="AA84" s="14" t="s">
         <v>52</v>
       </c>
@@ -35003,29 +35060,29 @@
       <c r="C85" s="13">
         <v>6</v>
       </c>
-      <c r="D85" s="48" t="s">
+      <c r="D85" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="48" t="s">
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="48" t="s">
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="M85" s="49"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="48" t="s">
+      <c r="M85" s="73"/>
+      <c r="N85" s="74"/>
+      <c r="O85" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="49"/>
-      <c r="R85" s="50"/>
+      <c r="P85" s="73"/>
+      <c r="Q85" s="73"/>
+      <c r="R85" s="74"/>
       <c r="S85" s="14">
         <v>0</v>
       </c>
@@ -35034,12 +35091,12 @@
       <c r="V85" s="17">
         <v>5</v>
       </c>
-      <c r="W85" s="48" t="s">
+      <c r="W85" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="X85" s="49"/>
-      <c r="Y85" s="49"/>
-      <c r="Z85" s="50"/>
+      <c r="X85" s="73"/>
+      <c r="Y85" s="73"/>
+      <c r="Z85" s="74"/>
       <c r="AA85" s="14" t="s">
         <v>53</v>
       </c>
@@ -35063,43 +35120,43 @@
       <c r="C86" s="13">
         <v>7</v>
       </c>
-      <c r="D86" s="48" t="s">
+      <c r="D86" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="48" t="s">
+      <c r="E86" s="73"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="55" t="s">
+      <c r="I86" s="73"/>
+      <c r="J86" s="73"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="M86" s="56"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="48" t="s">
+      <c r="M86" s="76"/>
+      <c r="N86" s="77"/>
+      <c r="O86" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="P86" s="49"/>
-      <c r="Q86" s="49"/>
-      <c r="R86" s="50"/>
+      <c r="P86" s="73"/>
+      <c r="Q86" s="73"/>
+      <c r="R86" s="74"/>
       <c r="T86" s="17"/>
       <c r="U86" s="14"/>
       <c r="V86" s="17"/>
-      <c r="W86" s="48" t="s">
+      <c r="W86" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="X86" s="49"/>
-      <c r="Y86" s="49"/>
-      <c r="Z86" s="50"/>
-      <c r="AA86" s="48" t="s">
+      <c r="X86" s="73"/>
+      <c r="Y86" s="73"/>
+      <c r="Z86" s="74"/>
+      <c r="AA86" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="AB86" s="49"/>
-      <c r="AC86" s="50"/>
+      <c r="AB86" s="73"/>
+      <c r="AC86" s="74"/>
       <c r="AD86" s="14"/>
       <c r="AE86" s="15"/>
       <c r="AF86" s="15"/>
@@ -35118,41 +35175,41 @@
       <c r="C87" s="13">
         <v>8</v>
       </c>
-      <c r="D87" s="48" t="s">
+      <c r="D87" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="48" t="s">
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="51" t="s">
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+      <c r="K87" s="73"/>
+      <c r="L87" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="M87" s="51"/>
-      <c r="N87" s="51"/>
-      <c r="O87" s="49" t="s">
+      <c r="M87" s="78"/>
+      <c r="N87" s="78"/>
+      <c r="O87" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="P87" s="49"/>
-      <c r="Q87" s="49"/>
-      <c r="R87" s="50"/>
+      <c r="P87" s="73"/>
+      <c r="Q87" s="73"/>
+      <c r="R87" s="74"/>
       <c r="S87" s="14">
         <v>0</v>
       </c>
       <c r="T87" s="17"/>
       <c r="U87" s="14"/>
       <c r="V87" s="17"/>
-      <c r="W87" s="48" t="s">
+      <c r="W87" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="X87" s="49"/>
-      <c r="Y87" s="49"/>
-      <c r="Z87" s="50"/>
+      <c r="X87" s="73"/>
+      <c r="Y87" s="73"/>
+      <c r="Z87" s="74"/>
       <c r="AA87" s="14" t="s">
         <v>60</v>
       </c>
@@ -35176,23 +35233,23 @@
       <c r="C88" s="13">
         <v>8</v>
       </c>
-      <c r="D88" s="48" t="s">
+      <c r="D88" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="48" t="s">
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
-      <c r="K88" s="50"/>
-      <c r="L88" s="52" t="s">
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="M88" s="53"/>
-      <c r="N88" s="54"/>
+      <c r="M88" s="80"/>
+      <c r="N88" s="81"/>
       <c r="O88" s="14"/>
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
@@ -35226,29 +35283,29 @@
       <c r="C89" s="13">
         <v>8</v>
       </c>
-      <c r="D89" s="48" t="s">
+      <c r="D89" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="48" t="s">
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="48" t="s">
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="M89" s="49"/>
-      <c r="N89" s="50"/>
-      <c r="O89" s="48" t="s">
+      <c r="M89" s="73"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="P89" s="49"/>
-      <c r="Q89" s="49"/>
-      <c r="R89" s="50"/>
+      <c r="P89" s="73"/>
+      <c r="Q89" s="73"/>
+      <c r="R89" s="74"/>
       <c r="S89" s="14">
         <v>0</v>
       </c>
@@ -35257,17 +35314,17 @@
       <c r="V89" s="17">
         <v>1</v>
       </c>
-      <c r="W89" s="48" t="s">
+      <c r="W89" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="X89" s="49"/>
-      <c r="Y89" s="49"/>
-      <c r="Z89" s="50"/>
-      <c r="AA89" s="48" t="s">
+      <c r="X89" s="73"/>
+      <c r="Y89" s="73"/>
+      <c r="Z89" s="74"/>
+      <c r="AA89" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="AB89" s="49"/>
-      <c r="AC89" s="50"/>
+      <c r="AB89" s="73"/>
+      <c r="AC89" s="74"/>
       <c r="AD89" s="14"/>
       <c r="AE89" s="15"/>
       <c r="AF89" s="15"/>
@@ -36164,11 +36221,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AA89:AC89"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="O87:R87"/>
+    <mergeCell ref="W87:Z87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="O89:R89"/>
+    <mergeCell ref="W89:Z89"/>
+    <mergeCell ref="AA86:AC86"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="O84:R84"/>
+    <mergeCell ref="W84:Z84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="W85:Z85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="O86:R86"/>
+    <mergeCell ref="W86:Z86"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="W82:Z82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="L81:N81"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="E57:K57"/>
     <mergeCell ref="E59:K59"/>
@@ -36185,51 +36282,11 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="W82:Z82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="W83:Z83"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="AA86:AC86"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="O84:R84"/>
-    <mergeCell ref="W84:Z84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="O85:R85"/>
-    <mergeCell ref="W85:Z85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="O86:R86"/>
-    <mergeCell ref="W86:Z86"/>
-    <mergeCell ref="AA89:AC89"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="O87:R87"/>
-    <mergeCell ref="W87:Z87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="O89:R89"/>
-    <mergeCell ref="W89:Z89"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -36255,200 +36312,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66">
         <v>45453</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -39476,39 +39533,39 @@
       <c r="C80" s="13">
         <v>1</v>
       </c>
-      <c r="D80" s="48" t="s">
+      <c r="D80" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="48" t="s">
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="48" t="s">
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="74"/>
+      <c r="L80" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="M80" s="49"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="48" t="s">
+      <c r="M80" s="73"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="49"/>
-      <c r="R80" s="50"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="74"/>
       <c r="S80" s="14"/>
       <c r="T80" s="17"/>
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
-      <c r="W80" s="48" t="s">
+      <c r="W80" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="X80" s="49"/>
-      <c r="Y80" s="49"/>
-      <c r="Z80" s="50"/>
+      <c r="X80" s="73"/>
+      <c r="Y80" s="73"/>
+      <c r="Z80" s="74"/>
       <c r="AA80" s="14" t="s">
         <v>45</v>
       </c>
@@ -39532,29 +39589,29 @@
       <c r="C81" s="13">
         <v>2</v>
       </c>
-      <c r="D81" s="48" t="s">
+      <c r="D81" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="48" t="s">
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="48" t="s">
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="74"/>
+      <c r="L81" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="M81" s="49"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="48" t="s">
+      <c r="M81" s="73"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="P81" s="49"/>
-      <c r="Q81" s="49"/>
-      <c r="R81" s="50"/>
+      <c r="P81" s="73"/>
+      <c r="Q81" s="73"/>
+      <c r="R81" s="74"/>
       <c r="S81" s="14"/>
       <c r="T81" s="17">
         <v>1</v>
@@ -39563,12 +39620,12 @@
       <c r="V81" s="17">
         <v>100</v>
       </c>
-      <c r="W81" s="48" t="s">
+      <c r="W81" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="X81" s="49"/>
-      <c r="Y81" s="49"/>
-      <c r="Z81" s="50"/>
+      <c r="X81" s="73"/>
+      <c r="Y81" s="73"/>
+      <c r="Z81" s="74"/>
       <c r="AA81" s="14" t="s">
         <v>46</v>
       </c>
@@ -39592,29 +39649,29 @@
       <c r="C82" s="13">
         <v>3</v>
       </c>
-      <c r="D82" s="48" t="s">
+      <c r="D82" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="48" t="s">
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="48" t="s">
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M82" s="49"/>
-      <c r="N82" s="50"/>
-      <c r="O82" s="48" t="s">
+      <c r="M82" s="73"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="49"/>
-      <c r="R82" s="50"/>
+      <c r="P82" s="73"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="74"/>
       <c r="S82" s="14"/>
       <c r="T82" s="17">
         <v>1</v>
@@ -40824,20 +40881,14 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="W80:Z80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="O81:R81"/>
-    <mergeCell ref="W81:Z81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="O80:R80"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -40847,14 +40898,20 @@
     <mergeCell ref="N2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="O80:R80"/>
+    <mergeCell ref="W80:Z80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="O81:R81"/>
+    <mergeCell ref="W81:Z81"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -40880,200 +40937,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44" t="s">
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -45444,6 +45501,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -45460,7 +45518,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -45486,200 +45543,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66">
         <v>45454</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -50029,6 +50086,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -50045,7 +50103,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -50062,7 +50119,7 @@
   <dimension ref="A1:AN110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+      <selection sqref="A1:AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -54674,25 +54731,6 @@
       <c r="AN110" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
-    <mergeCell ref="A1:J4"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:AN1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-  </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -54717,198 +54755,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66">
         <v>45454</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -59327,6 +59365,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -59343,7 +59382,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -59369,200 +59407,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66">
         <v>45454</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -63949,6 +63987,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -63965,7 +64004,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -63991,198 +64029,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="46">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="66">
         <v>45454</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="47" t="s">
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -68797,6 +68835,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -68813,7 +68852,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
